--- a/biology/Botanique/Sansevieria_raffillii/Sansevieria_raffillii.xlsx
+++ b/biology/Botanique/Sansevieria_raffillii/Sansevieria_raffillii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sansevieria raffillii, également appelée Dracaena raffillii[1], est une espèce de plantes de la famille des Liliaceae et du genre Sansevieria.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sansevieria raffillii, également appelée Dracaena raffillii, est une espèce de plantes de la famille des Liliaceae et du genre Sansevieria.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante succulente, Sansevieria raffillii est une espèce de sansevières à feuilles longues (de 65 à 150 cm) et lisses, de couleur verte à vert-foncé avec des striures dans les tons plus clairs, et présentant des bords brunâtres à rougeâtres. Elles poussent à raison de seulement une à deux feuilles par pied[2].
-Elle a été identifiée comme espèce à part entière en 1915 par le botaniste britannique Nicholas Edward Brown[3].
-Sansevieria raffillii peut être confondue avec Sansevieria dawei qui est cependant plus grande et ne présente quasiment pas de striures pour les feuilles plus âgées[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante succulente, Sansevieria raffillii est une espèce de sansevières à feuilles longues (de 65 à 150 cm) et lisses, de couleur verte à vert-foncé avec des striures dans les tons plus clairs, et présentant des bords brunâtres à rougeâtres. Elles poussent à raison de seulement une à deux feuilles par pied.
+Elle a été identifiée comme espèce à part entière en 1915 par le botaniste britannique Nicholas Edward Brown.
+Sansevieria raffillii peut être confondue avec Sansevieria dawei qui est cependant plus grande et ne présente quasiment pas de striures pour les feuilles plus âgées.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente dans le sud de l'Afrique orientale au Kenya, en Tanzanie et en Ouganda poussant dans les zones rocheuses des savanes et forêts sèches entre 0 et 2 000 m d'altitude[5],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente dans le sud de l'Afrique orientale au Kenya, en Tanzanie et en Ouganda poussant dans les zones rocheuses des savanes et forêts sèches entre 0 et 2 000 m d'altitude,.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Synonymes et cultivars</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce présente des variétés synonymes[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce présente des variétés synonymes :
 Sansevieria raffillii var. glauca (Brown, 1915)
 Sansevieria raffillii var. pulchra (Brown, 1915) reclassifiée comme Sansevieria kirkii (Baker, 1887)
 Sansevieria raffillii var. raffillii (Brown, 1915)</t>
